--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/5_Aksaray_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/5_Aksaray_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB23A3CC-8D81-4204-A17B-898F6F0D8916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD1B50F7-A785-431C-8D50-C9488483DC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="675" xr2:uid="{5ED9F47D-DD3B-4EBC-9BE1-41039A81A1E9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{5FA09C3E-227D-4110-ABC7-65BFD68CACEC}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -984,14 +984,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{03C9159F-72AF-47B6-B143-0B6066A89649}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{529D317D-7459-43F5-88CE-FC333C005D12}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{3D19DB69-B67C-402A-ABD0-A9B9E3AC7354}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{D4B41364-EEFB-4A51-8FB1-B989A3DC089C}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{6C9B5907-F11A-476F-8F41-501A75843BA9}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{B0AF69D5-1F64-40D8-9C8A-2FFC5275ABFC}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{28988FEF-67E0-42C8-9341-67FB8D7BFB81}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{92DC4619-513E-4E79-9B85-F8D7ED0F9691}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{B48AE1A7-51DC-4DC0-B248-D2A370578F85}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{34714ACF-2F37-47F5-B167-F96BF69ADBA4}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{3FD5EC0E-F3F6-44BE-8575-ED4C44876181}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{AD9632B9-5E21-4ABA-9287-2017DF3E91DF}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{745E9FEA-6DC7-463A-B630-EE34BC2F89F9}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{A6A28DEB-BCB4-45A5-8FF2-32571E485CB5}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{BAFF74CA-2AC8-4DAE-B957-F6CDF271ED36}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{748043D1-6336-490A-888E-94EEE297B735}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1361,7 +1361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E77DC2A-0DCB-4E0D-A439-E01D794EDA46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F138E546-806A-4E2D-892D-5B81C72B3F32}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2643,17 +2643,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F71FF953-0E5A-4E58-A945-23CB2035679A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8411E319-9850-45E2-9EB7-B44D01E13DF8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F6FAE21D-9968-4A56-ABC1-381CA0D2334F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ADA2EE9F-6A10-485C-B97C-63D70B1C301E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2259481F-4C26-4CE9-85AA-5D31A3E1B904}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2CF36523-37C4-4E50-812B-8934EFACF715}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{326B60A8-D94B-4A90-BF15-A5DCD37F9EB8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{62E38453-EC59-4A77-9FCE-0CA397D35DD6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2BB7F4F5-A9B7-43CE-9098-6B0508B88B35}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{945761B4-0E8E-40C8-A2D4-551FB58C418F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3817AAB8-01FD-4C5E-9E62-659DA26CEE9D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B1A41BEA-68CB-47BC-B283-15C29E6C7134}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6D682065-6C14-42FF-9E12-E6310AB8BAFE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{ABEF5D9B-5E55-4D3C-B390-1E1D942F7DBE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{72AD50B0-F9E8-46A6-B1CF-81AC3AA198C2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{59ABAC04-628B-46F3-AA52-BCBEFAE8FF75}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BA36FB7E-A982-4FE7-BFC3-81A3F7FE6EDD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1CFD1F1A-6856-45D3-B68D-FE4491DE4119}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4963A738-D0AA-410D-8D69-648CA0D74A13}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F2539669-4494-4D9F-B5C6-658429674906}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5C6D7578-91F5-4669-B347-C061DE193173}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7B3403C7-C107-4CA7-8765-B8E0CDB7B7FB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2666,7 +2666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D71E31B-0FC3-4D1A-9A1D-999C79F80439}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD60A5F-45B5-445A-B22B-4E945AE04118}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3939,17 +3939,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BE3DC695-DE7A-4ADB-B301-F4E0FFE948E4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{27CCCBC8-41FA-4800-B235-3CD0E1224089}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{178B8A1D-FA13-4755-A112-C6938D3072AC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{081403AF-8E1E-444A-9EEE-37A74B134C3F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{543A7739-04E7-43BB-B617-4CD858CA5EB1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DDFD9B2E-D29A-4087-9AC4-E40D771D276D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{585B5997-E4E6-4299-B199-0F5701B05DA5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B261D0DD-79C5-489B-9FD8-0629FFF57144}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{42B3BC68-4665-42C9-9EC9-9810BDBA9A49}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7C5E0E6B-5F68-4C65-A3A1-F6D7FADDFD90}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{53CE972F-C65B-4DDD-849E-19CBFAC242B3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BF1A6454-A3D8-4E85-B523-22CBAC44B76A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D555EC95-143A-413F-8C06-45AA20FD93E7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{96522168-EB30-462A-9C6B-27AC6DB0165D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B23D35E0-FDBB-4383-80FE-EEAF79923D82}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3B96992F-D1A2-439E-A8EA-EF47E6ADF9B9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DFDA36B8-5973-4C6F-8803-FF44D3C63D99}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FAB3B3FB-7795-4590-8AE2-93EF4B6374FE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E8E7BA01-489A-44FA-A859-E581C4BCFB47}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A4BD19F8-F334-48B4-82DE-2ED36961574C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{421E821B-8D1F-4AC1-8C39-AC7A4F057ECA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6AA82A69-2838-49A3-9955-4D09390D72CB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3962,7 +3962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB74AA2-8AA4-4FB5-A739-AE9276DA3190}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42385FA2-F578-4E82-8466-3FBAACCF9A8B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5229,17 +5229,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FADC7BFA-91E9-433A-962B-732C2B4DB19B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C854316C-E552-413D-ABDC-A63BA14152F1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{442B5D01-948A-4D23-8BB3-451373E4E9B7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D6E87B3B-0D75-47FA-A744-812680507232}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{53F9272F-EEE9-4ABD-A26F-02295ECC711C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{027F2538-5298-457B-BBB3-ABEBCD9D19DA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{91B16EDD-0B03-4825-926B-CF0A8686DCB2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{94592A2A-2812-415F-B010-FD9D49978C1E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5B19E7E0-B88B-4EB1-A7D2-5E5CE5A41295}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A6589FE2-AE96-4678-BE01-505E9511C39C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{86161F00-8284-437D-AE22-760AAFCC96C3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{86A11086-21DB-41D6-A98A-097CF8B2EB4A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B6C97CE6-8C3C-42FB-B53B-99492CB9C566}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{52DBB3FA-2C53-49B2-9482-E191F979A179}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DBD9EF91-D74C-4F01-83A7-FB950530172B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2C51439A-69CF-4332-98B2-8FA9D702F440}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{51F57AD7-CADC-4501-8930-396751FDA5F1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{240B51C9-278C-4D87-8CA6-C29807F4DA27}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{236C2881-A98F-43FE-8918-2F4D2A4A0C5B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2CE472C6-48FF-4A60-84B1-1341CC22570D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{80E80CFA-8382-4013-90EB-6944FCC5DF2E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0193A43B-71F4-4B31-AB06-5DC4907DF4F6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5252,7 +5252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0230A293-9BDD-4244-8674-7C6E4B977C12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BCEB4E-EE42-4063-804E-349C3BF7283C}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6513,17 +6513,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AA4D3BF0-A23F-4FF7-8ED5-D52E33A9A1D0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FFCB3C27-1757-4AE3-9FFB-95BE77161969}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{12E5081C-11D0-4C6E-8EB7-DAF4E1E9934C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{30D3A7B5-246A-40E2-9A52-05A01DB97B44}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{32D77C1F-1A53-45D2-9782-8A1B5A0FD871}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F87A1F6B-E4C5-4FD6-A443-C2F9F8F7F581}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D1AC2A9E-59DF-48FC-A8CB-06B37EB60387}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AA38BAC5-BB35-424E-A1F7-5D80ED7B33A5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D540A574-DF6D-4CBD-863E-493CB39BF5BD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0B9B2093-C504-42DF-A52B-46B3ED0EC454}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DF49405F-32A5-46EB-A9DF-D34429A05307}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{196E8AE3-FD7D-4625-9942-E0ED2727147C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{92DA26A9-C689-4A07-BD7E-2DDCAD125ECE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8314BDBB-D5C9-4745-B3F0-8CD025F643BA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A24D8C92-6E6B-4A99-AF79-7F7E37C93C1A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5A568629-B3F3-4F99-AA51-10984E6E19CE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DD2106C1-BFED-49EE-8D17-20716B3BE150}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3CA69104-0C72-4FBB-BBA1-8E284C04D29F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B707A2E6-5540-4459-881A-44EDD41C36BF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{33C5D4BC-9128-41CB-858E-B07109E9A667}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E74085FB-BAA5-49DD-A8A4-C76E4E72CB9E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CC819AEF-CF1E-4146-BA7D-6C6C7CAC49E2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6536,7 +6536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A729E8-BE56-4F00-9B3A-ADA5F9FD698A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E999F0A6-A73B-415A-93EA-11E57F2FEE28}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7813,17 +7813,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BA1FE1AD-3DC1-4765-BE84-CC6197C02934}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{51903CD8-C5B4-4BBF-B3D4-916B638F8975}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7459B143-A036-4C43-B3ED-7498FABE4037}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{88410D05-D0E5-46FC-8645-918A1688C012}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1F444A72-5E19-4E28-BACC-96113F96F4DB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CA27DABE-CEA4-426A-BAD9-1C95087279E4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4E7CEA4F-5346-4357-95CF-96652281A3E0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AFE2BADD-83ED-446E-929E-F3D1A6C5F7A0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{83303F3E-7DDD-4A86-8748-1CDE4B427D70}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7D417020-33E8-464E-82EA-0F1F495FD525}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CC889A00-DDE7-4C3B-A055-DAF259B28615}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AF318ABA-8B4F-4D7F-997C-006F04A86704}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{35036416-A9B8-4449-878C-22680B2C1F06}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1333AC9C-2D38-4795-8FFD-216F09D15CDE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0D517D44-4943-4E44-8521-2EF19012B9DC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{26E7580B-65DF-4B92-B7DD-04E1C5C2E963}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C2565F83-E936-4535-A4DE-C2D9A957C58B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{33140E80-CBBF-4AD0-92A7-A5D9F620E82F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{24E8FBD9-271A-4387-8E79-41D5AF7B567F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EBBC19DC-0E5E-44D7-A875-A62A34F960D8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{939B21A7-1FC4-4E6C-92F1-3D9A78A1A1AC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4FF29452-465D-4090-B344-68257BD4C30B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7836,7 +7836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332136A8-7DDE-4395-89CE-622C6E68CAD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4203D9-3F45-4728-B98B-D455E653B474}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9113,17 +9113,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F679B23D-F073-4BBC-8A21-9EB8B2F1F571}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{00890D09-824B-4514-8B92-C7A0C48A4E8F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C4002739-CC39-4CD1-9D98-55BF30BC11E9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EEF13DC5-C2C5-4518-8B5B-6DBCAF067A76}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7720B3E1-E5D2-4177-8777-117D3655C933}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{93E67917-F67E-4F32-92E0-E09F9C81408A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{938655FE-DD8A-4C7D-A7DE-C90C0A561E6A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4858477C-A055-4546-87C9-943163AB9C8F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BC4F0062-955B-4C00-8338-C19B9F6C641C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{56D83CA8-D848-452B-A1AA-71CC8BEB74B2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4A5AE48C-6536-49F4-BF7B-F024179DBFA5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9CA8ECCC-EA8A-4F53-8BCC-EF8F5D664C15}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{82B5A5C0-EDC7-43FC-AEBD-4000B680A4FB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{053A73A8-B061-4A9C-B33E-E2FFF7D99A51}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A2E02613-FC63-4036-B0C3-0CC96FEBEE77}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{79486585-3986-4C38-9C73-8BF26F0C31DA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{881C4F62-DF04-462D-B43F-747766D1A7F0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{22ACB830-A9BE-4D42-A6D4-ADC92DF877B6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D5AFBF29-37D2-40E4-A717-36408B87CFCD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{222624DF-D162-47E2-8F3F-73EFFC654F7B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0C0C584D-63C1-42FB-8817-670B9852A02D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{480FB5C2-FED9-4227-98BA-8FF316438C97}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9136,7 +9136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D11FBA-A2C0-4EA5-B500-639C04922F0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CA33C8-B8D9-4D78-9383-BE14AF11F40E}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10413,17 +10413,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{00DBC34F-69C5-4A3B-8AC9-A062C70415CC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7AF8D68F-15A6-41AE-858E-DC536F716034}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AE2EA8DF-911C-4F22-B8BD-BA8E301D5A54}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0306F471-6D75-4BAD-8740-9B9BE99BA878}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7324DCEE-109B-4F2B-94A8-41B39F09B36A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{01326275-CD15-4E99-821C-DBB8935A0627}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D202D1B5-B478-4080-B96F-008C90B1FBC3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FDC0B70D-D497-495F-AAAB-A8275905CB62}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{306B9AC6-D7E9-460F-AA60-0540E2ADCE1F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{56BC8B92-9EA0-4506-AE46-0F908CF60682}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{76965228-A635-4A75-A07F-FEA353938C73}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5315230C-6493-4E10-8171-F66406D2EDF9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{088B8D60-30DC-426E-A500-91B394B35A5B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E52A97CA-69DE-43D9-87C7-5D4D2A235FDC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F8FC0653-BAA5-47F9-B90A-125824FF2AF7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C6266B8E-D792-4F86-804A-B757F0ED1668}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{46408662-6581-4AAA-ADB7-A05549F60636}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2D269CB7-CD65-4CFF-8836-B70F9E4229A1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0FF863E8-D323-48A9-B675-009DBCE36587}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CB180DBD-28FE-4F92-89C6-20BF0871DA27}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A91B9F51-0FC1-4DF9-BD50-5CC7663E3F1D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FD95AEA5-F072-4EBB-9F21-65574E6202D7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10436,7 +10436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC26C22-D210-4926-BF28-7FA4DEEFDC17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E265211-6819-4062-87E9-BE6F4A7F669D}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11713,17 +11713,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F5AAEC7C-EAEA-4234-8C13-C58373CB1133}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{49EB39B9-EF11-46FE-8EE2-CEFAB7928428}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4197A882-0983-497B-B8E1-B370AB0B8F9E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E1CFBF58-853B-412A-BEAF-566D8786146D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E0E60C48-16D9-4048-8F70-5CC38BCADCBB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EEA74A02-54F5-4F58-929D-9F3391DFF5DE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9DE744F3-C8B8-49D1-8BB9-059D61F70D9C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F9ED4519-6791-4BE8-A11B-2EE7F782CE20}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C5E81099-FB8A-44B7-B922-F354CBE8BE97}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9D7C3EB2-D8EE-43FF-8465-B834F978A1E0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{61AC50A1-7F8A-449E-AEFA-C4366ECDA1C2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{936703E3-B235-4C0E-9FAE-B537EFA4C77A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4FB80754-AE4E-48C1-8D4B-5F84C1B514A2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E19081E5-0745-48A4-80A2-F8EE88D23A21}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{99BAD6C3-B5E7-4076-A6FE-DA5C8EE96FDE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F7814761-D758-4EE9-AAF8-F5CC88882E40}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DCC1C64B-B6E5-4088-B09D-4EEF4679B23F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DD2F3DE2-FC7E-4567-ACBB-2CB876E97697}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4D7F8380-8A44-4EBF-A05A-D7565D1CE5DE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FB89EE04-6479-4461-A6EA-C665F817D041}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{264A1296-9EE0-4EE9-AD5F-7A44D2AE22AA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{85B6F6AD-0B6C-4B53-9284-0CB44A0BF638}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11736,7 +11736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B24B100-6806-42D4-A5A5-0357505071B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDF1CFA-0332-4CD0-9C52-70D60FAD0121}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13013,17 +13013,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0C30C0CD-65A2-43AF-82E1-D727968811F5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D0539F0B-52B5-466C-ACBA-0A25C07F88CE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AF0A7DE0-30BD-4941-9F34-F860A30222AA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7A3A84C3-AF5E-4BDC-977C-B35F4F932B55}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3E4A07DD-7C50-4270-AD03-6031AE542C7F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F33A99FE-0EBC-43A6-B150-951BA49E5C28}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E7CB9D58-34B8-443D-A9BF-F33C4BF23885}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{81B5D921-C03C-4C0D-8215-C96CCB287A34}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{72364BCC-A94E-4FB2-8B18-AD8ADA6C3496}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C48C1DF5-2FAD-4560-B6B4-368A8FA8732D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4131DD24-75AF-42EC-ABDF-52CA9DDD874E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7C21C179-CFDA-46EF-AEC4-76647F1710DE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8047788F-EFE1-4A85-857D-6D7FCEA2AA49}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6E67D97E-E774-408D-9F7C-855DFAE38A4C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B8792D80-9333-4037-9978-BD626051AF89}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9481EBDE-6D6F-4C8C-83B9-392FAE94B69B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F073F1C9-D395-46B2-B991-094BFC7E80A7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AC945CD3-FD14-4B52-B95C-D25B65464B70}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{52DAE5C2-5A7F-4327-95E8-2EA3963DDF44}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8C14271E-1361-46C8-8C36-478C75E7AC45}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1120B3A8-D2F1-48BA-93EF-1C0129FC93A8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{671F6F21-2070-4760-9804-8B4284149DCF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13036,7 +13036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FC7DA9-C770-4083-87F6-74CAA3C3C933}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1357F9-0133-4E76-86CC-C4B02B43CB88}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14313,17 +14313,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1B3CB1B9-B336-4AB3-8D95-FA13A4913EB1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EDA386B7-A044-40F8-AB25-96AE7FD4528C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{91D9A62C-8A8F-45C6-B821-47F42E028F2D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{01ABF5D6-6EE5-435B-B870-11468EDC2FEF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{58EF01A4-1EA1-4F2F-A89A-CFE59354858C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8622F353-E138-4CAE-B508-42708AD187C4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{03073E8D-BF6D-4ABD-9E2B-4759F41CD163}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1F2F0716-20D3-4D80-A96F-18424490B64E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{25FFF549-C209-42CF-897B-7609F99D2768}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{87DFC5DA-C7AE-4079-A73F-BB8D7B983DA6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0DEC5EEB-AEB5-4075-900F-07E9231851F3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{41E2AE96-B724-4A22-970A-C1D0355F7E8B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{00F7E65B-3109-4AEB-9A2C-01828837F843}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F603EBA9-2583-4FCE-A6A8-335145E3DD59}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ECCCEC9A-CAC4-4553-9DB6-03C1F2280670}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{620842F9-5F9D-410F-B9EC-304BF1924690}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{226FDCBB-1AF1-47DD-A12A-66AF30B007BC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C6D2CCA0-CD2A-4955-8BCF-1BE9A97AA669}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ACE6A82E-087D-4C2A-B836-06DFDF8A3996}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4454B18E-0947-4E25-B2F6-EF2C250E9F2D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{043AC917-A3FD-468B-910A-7B8DFB8566ED}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{55D89779-5EF6-42BB-9214-76A839D38C05}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14336,7 +14336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CACEA9-9511-4EC7-9550-1DD4BC80F0C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2ADE628-9852-48F3-B5EF-C94032039A50}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15609,17 +15609,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C878B6E5-918B-4874-AFF0-CCC8B70CAEDF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0EB0F9F7-ABE1-4EEB-9C43-8CA2D39E2335}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C5C1B7FE-D251-49FC-B19C-556BEF5CC6B7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{941D04F5-21A0-41FA-B0FE-E0B6AEED465C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{36B43C3C-BA39-4B7B-A063-E038525E4766}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8678CA46-0766-4CC7-B70B-2CCF96EC5A90}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7CE59ABA-A86F-4BB6-B3A7-65D7890F1D61}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A5B1FF4C-2655-41A8-9843-D9AF51B6891D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A0CB9B00-B600-45D5-9EEE-BEFF7E40C131}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D98E8B12-45E1-422F-A58B-A92BC2B68125}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0E41A1D4-43D5-40D5-8D03-5A62D501A3C3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{722E35E0-3B49-4083-8CDE-80EB6CB146F7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{44E09ECE-23FD-4D0F-9BC7-91C0779B5146}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7F2BAE4A-C03D-41A4-8505-A0C240A92723}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CC279B25-DFF0-4919-8A33-8C0164357927}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{73C6050E-C3AF-430C-BA8A-AB3AC480F94C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{42591A41-E7A0-4C2A-8131-919A5994FD61}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{03BD563B-917E-4F38-89B9-B78F68E096F9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0D12DBBC-5FB3-4374-B595-0DCDD7116FFF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{75C81670-7E95-42E5-8122-5439A4A9A858}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A8B0243A-8F43-4EC5-97EA-EAB5DEAB5B56}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{30F5E08F-3FAA-4100-81C1-C8D90E57BC61}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15632,7 +15632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7082416E-17EE-4E19-86CF-BE71095EE582}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E636BF-881F-465A-944B-2F1B6267A807}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16905,17 +16905,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{07B799EB-F4AB-4CF0-BFA2-304FC54DB668}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{87AC49AF-F1BA-46F9-A429-D6EF04EEFD5B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{477792CA-7809-4F00-832D-71DB23DA0FF4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9287F8B5-EF3D-4E7B-A027-39B7FDA749FE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{114D5486-DC74-49AA-A25A-0ED7B30EB348}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2D35F563-101C-461E-A0A2-2FD5575C8F26}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C25F88DB-E5E5-455B-AC7B-1781BAFD78D2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{762F5E6C-BA63-43BF-823E-C400553D23F3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{208255CB-1840-41E0-A059-F15974A9B955}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{96749661-30CD-41EE-8295-7646811B3763}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2A0684D4-8C7A-43C4-B2E2-87F46F1AABEB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{582ABD7F-D62C-4696-9AAB-C7C72A65AC19}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6CB2692D-7F15-4690-8BFA-5053033CB03F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D50B747B-D03B-4E8C-8505-B44270308F9F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BFE4A81A-3ABA-4F45-B5B7-BD94F4EB60A3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6D674325-2F8F-46E7-91CA-E2243A279964}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C280FD37-87E3-4954-B167-224C0FED9372}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1FA9394A-994C-433F-A881-19731F3B78B4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{90D42A87-C418-4883-BE1C-13D7098D0792}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{988714A0-68C3-4016-A0DD-67711D64A109}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0A10FD1A-CDF5-4642-9274-8FA8CD855A4E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D3291DF4-AEE4-4053-B1F6-CD912D802241}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
